--- a/biology/Médecine/Grignotage_(nutrition)/Grignotage_(nutrition).xlsx
+++ b/biology/Médecine/Grignotage_(nutrition)/Grignotage_(nutrition).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le grignotage désigne une prise alimentaire plus ou moins régulière d'aliments en dehors des repas. Ces petites prises fragmentées apportent moins de 25 % des apports nutritionnels de la journée, ce qui les distingue du repas, et ne sont pas liées à une sensation de faim, ce qui les différencie de la collation. Le grignotage peut être corrélé à l'inactivité physique, la sédentarité et, par extension, à certains loisirs comme les jeux informatiques et la télévision[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le grignotage désigne une prise alimentaire plus ou moins régulière d'aliments en dehors des repas. Ces petites prises fragmentées apportent moins de 25 % des apports nutritionnels de la journée, ce qui les distingue du repas, et ne sont pas liées à une sensation de faim, ce qui les différencie de la collation. Le grignotage peut être corrélé à l'inactivité physique, la sédentarité et, par extension, à certains loisirs comme les jeux informatiques et la télévision.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En nutrition, il est déconseillé car les aliments consommés sont rarement sains et que cette pratique ne permet pas à l'organisme d'arriver à une sensation de satiété qui inciterait à s'arrêter de manger. 
 Le grignotage peut être analysé en termes de repas spécial plus ou moins équilibré dans l'équilibre nutritionnel de la journée dépendant lui-même de la courbe d'activité de celle-ci. 
@@ -546,13 +560,50 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, en 1999, à la suite des journées sur l'obésité et la nutrition appliquées à la santé (JONAS 99) consacrées notamment à l'obésité, un article de presse titre « Grignotage et fast-food: les deux mamelles de l'obésité des enfants »[2].
-En France, en 2000, « le royaume du bien-manger est rattrapé par les problèmes d'obésité. Études après études, la tendance se confirme »[3].
-Lobbyisme
-Selon des chercheurs dans le domaine de la santé publique, les multinationales de l'industrie agroalimentaire se sont donné pour mission d'« apprendre au monde le grignotage », alors même que ces aliments et boissons transformés sont problématiques à de nombreux titres[4],[5] :
-« Densité énergétique extrêmement élevée des produits, taille excessive des portions, consommation de grandes quantités de calories sous la forme de boissons sucrées, survalorisation de la consommation, incitation au grignotage au lieu de repas réguliers, manger en regardant la télévision, découragement aux repas et à leur préparation, association des produits et boissons transformés avec le sexe, et réduction du bonheur au fait de dépenser. »[4],[5]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, en 1999, à la suite des journées sur l'obésité et la nutrition appliquées à la santé (JONAS 99) consacrées notamment à l'obésité, un article de presse titre « Grignotage et fast-food: les deux mamelles de l'obésité des enfants ».
+En France, en 2000, « le royaume du bien-manger est rattrapé par les problèmes d'obésité. Études après études, la tendance se confirme ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Grignotage_(nutrition)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grignotage_(nutrition)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lobbyisme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon des chercheurs dans le domaine de la santé publique, les multinationales de l'industrie agroalimentaire se sont donné pour mission d'« apprendre au monde le grignotage », alors même que ces aliments et boissons transformés sont problématiques à de nombreux titres, :
+« Densité énergétique extrêmement élevée des produits, taille excessive des portions, consommation de grandes quantités de calories sous la forme de boissons sucrées, survalorisation de la consommation, incitation au grignotage au lieu de repas réguliers, manger en regardant la télévision, découragement aux repas et à leur préparation, association des produits et boissons transformés avec le sexe, et réduction du bonheur au fait de dépenser. »,
 </t>
         </is>
       </c>
